--- a/progect IK/output_users.xlsx
+++ b/progect IK/output_users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Login</t>
   </si>
@@ -34,10 +34,19 @@
     <t>kk</t>
   </si>
   <si>
+    <t>Ll</t>
+  </si>
+  <si>
     <t>Иван</t>
   </si>
   <si>
+    <t>Андрей</t>
+  </si>
+  <si>
     <t>Кизикин</t>
+  </si>
+  <si>
+    <t>Фокин</t>
   </si>
   <si>
     <t>qwerty</t>
@@ -401,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,13 +449,27 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/progect IK/output_users.xlsx
+++ b/progect IK/output_users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Login</t>
   </si>
@@ -37,22 +37,43 @@
     <t>Ll</t>
   </si>
   <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>Shedl</t>
+  </si>
+  <si>
     <t>Иван</t>
   </si>
   <si>
     <t>Андрей</t>
   </si>
   <si>
+    <t xml:space="preserve">Елена </t>
+  </si>
+  <si>
+    <t>МАКСИМ</t>
+  </si>
+  <si>
     <t>Кизикин</t>
   </si>
   <si>
     <t>Фокин</t>
   </si>
   <si>
+    <t xml:space="preserve">Шалаева </t>
+  </si>
+  <si>
+    <t>Вихров</t>
+  </si>
+  <si>
     <t>qwerty</t>
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>12345</t>
   </si>
 </sst>
 </file>
@@ -410,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,13 +470,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,13 +484,41 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B6" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
